--- a/results/mp/logistic/corona/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -61,15 +61,15 @@
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,60 +82,63 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
@@ -145,28 +148,25 @@
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>protect</t>
@@ -533,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
         <v>30</v>
@@ -602,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.815068493150685</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C3">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -752,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,16 +823,16 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8198433420365535</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>314</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>69</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,16 +873,16 @@
         <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8113207547169812</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5767195767195767</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +952,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5302013422818792</v>
+        <v>0.5387596899224806</v>
       </c>
       <c r="C10">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="D10">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10">
         <v>0.8048780487804879</v>
@@ -1023,16 +1023,16 @@
         <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8028169014084507</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1052,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5271317829457365</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C12">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.796875</v>
+        <v>0.7734375</v>
       </c>
       <c r="L12">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4266666666666667</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.76875</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1152,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2888888888888889</v>
+        <v>0.3</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,19 +1170,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7875</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,13 +1202,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.25</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,13 +1252,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1849865951742627</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C16">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1302,31 +1302,31 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0145114479200258</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3056</v>
+        <v>270</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
         <v>36</v>
@@ -1344,38 +1344,62 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.01514663229133097</v>
+      </c>
+      <c r="C18">
+        <v>47</v>
+      </c>
+      <c r="D18">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>0.08</v>
+      </c>
+      <c r="F18">
+        <v>0.92</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3056</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>36</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="J19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>0.7142857142857143</v>
@@ -1401,7 +1425,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>0.675</v>
@@ -1427,16 +1451,16 @@
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.638235294117647</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L21">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M21">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1448,47 +1472,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6279069767441861</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6067796610169491</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L23">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="M23">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1500,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.606694560669456</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L24">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1526,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1552,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.5692307692307692</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L26">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1578,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5638297872340425</v>
+        <v>0.54</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1604,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5617977528089888</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1630,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5571428571428572</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L29">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1656,85 +1680,59 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.3835616438356164</v>
-      </c>
-      <c r="L30">
-        <v>28</v>
-      </c>
-      <c r="M30">
-        <v>28</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.3205128205128205</v>
+        <v>0.009410288582183186</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32">
-        <v>0.01033187226048842</v>
-      </c>
-      <c r="L32">
-        <v>33</v>
-      </c>
-      <c r="M32">
-        <v>40</v>
-      </c>
-      <c r="N32">
-        <v>0.82</v>
-      </c>
-      <c r="O32">
-        <v>0.18</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3161</v>
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
